--- a/Gestão do Projeto/Indicadores/DashboardAlergias.xlsx
+++ b/Gestão do Projeto/Indicadores/DashboardAlergias.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GOInterop\git\HSL-IPS\Gestão do Projeto\Indicadores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6706ADBF-8D73-4D37-92CF-DD2C7B7D7E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E844EE-51BF-D647-BA6E-366EB9AEA3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="1120" windowWidth="25640" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>Mapeamento semântico</t>
   </si>
@@ -186,6 +199,9 @@
   </si>
   <si>
     <t>attributo</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/ips/CodeSystem/absent-unknown-uv-ips</t>
   </si>
 </sst>
 </file>
@@ -246,12 +262,14 @@
       <sz val="10"/>
       <color rgb="FF4A86E8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -948,23 +966,23 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.42578125" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="61.5" customWidth="1"/>
+    <col min="8" max="8" width="39.5" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1011,7 +1029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1030,39 +1048,39 @@
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="24">
-        <f>COUNTIF(J4:J14, "TRUE")/(COUNTIF(J4:J14, "TRUE")+COUNTIF(J4:J14, "FALSE"))</f>
+        <f t="shared" ref="J2:R2" si="0">COUNTIF(J4:J14, "TRUE")/(COUNTIF(J4:J14, "TRUE")+COUNTIF(J4:J14, "FALSE"))</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L2" s="25">
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
-      <c r="K2" s="25">
-        <f>COUNTIF(K4:K14, "TRUE")/(COUNTIF(K4:K14, "TRUE")+COUNTIF(K4:K14, "FALSE"))</f>
-        <v>0.875</v>
-      </c>
-      <c r="L2" s="25">
-        <f>COUNTIF(L4:L14, "TRUE")/(COUNTIF(L4:L14, "TRUE")+COUNTIF(L4:L14, "FALSE"))</f>
-        <v>0.25</v>
-      </c>
       <c r="M2" s="25">
-        <f>COUNTIF(M4:M14, "TRUE")/(COUNTIF(M4:M14, "TRUE")+COUNTIF(M4:M14, "FALSE"))</f>
-        <v>0.25</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="N2" s="25">
-        <f>COUNTIF(N4:N14, "TRUE")/(COUNTIF(N4:N14, "TRUE")+COUNTIF(N4:N14, "FALSE"))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O2" s="25">
-        <f>COUNTIF(O4:O14, "TRUE")/(COUNTIF(O4:O14, "TRUE")+COUNTIF(O4:O14, "FALSE"))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="P2" s="25">
-        <f>COUNTIF(P4:P14, "TRUE")/(COUNTIF(P4:P14, "TRUE")+COUNTIF(P4:P14, "FALSE"))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="Q2" s="25">
-        <f>COUNTIF(Q4:Q14, "TRUE")/(COUNTIF(Q4:Q14, "TRUE")+COUNTIF(Q4:Q14, "FALSE"))</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
       <c r="R2" s="25">
-        <f>COUNTIF(R4:R14, "TRUE")/(COUNTIF(R4:R14, "TRUE")+COUNTIF(R4:R14, "FALSE"))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S2" s="25"/>
@@ -1072,10 +1090,10 @@
       </c>
       <c r="U2" s="28">
         <f>AVERAGE(U4:U14)</f>
-        <v>0.20454545454545456</v>
+        <v>0.60227272727272718</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="43" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
         <v>28</v>
       </c>
@@ -1179,16 +1197,16 @@
         <v>1</v>
       </c>
       <c r="N4" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="14" t="b">
         <v>0</v>
@@ -1200,11 +1218,11 @@
         <v>0</v>
       </c>
       <c r="U4" s="26">
-        <f>COUNTIF(J4:T4,"TRUE")/(COUNTIF(J4:T4,"TRUE")+COUNTIF(J4:T4,"FALSE"))</f>
-        <v>0.36363636363636365</v>
+        <f t="shared" ref="U4:U9" si="1">COUNTIF(J4:T4,"TRUE")/(COUNTIF(J4:T4,"TRUE")+COUNTIF(J4:T4,"FALSE"))</f>
+        <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
         <v>29</v>
       </c>
@@ -1242,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="M5" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="14" t="b">
         <v>0</v>
@@ -1266,11 +1284,11 @@
         <v>0</v>
       </c>
       <c r="U5" s="27">
-        <f>COUNTIF(J5:T5,"TRUE")/(COUNTIF(J5:T5,"TRUE")+COUNTIF(J5:T5,"FALSE"))</f>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="1"/>
+        <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
         <v>30</v>
       </c>
@@ -1305,22 +1323,22 @@
         <v>1</v>
       </c>
       <c r="L6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="14" t="b">
         <v>0</v>
@@ -1332,11 +1350,11 @@
         <v>0</v>
       </c>
       <c r="U6" s="27">
-        <f>COUNTIF(J6:T6,"TRUE")/(COUNTIF(J6:T6,"TRUE")+COUNTIF(J6:T6,"FALSE"))</f>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
         <v>31</v>
       </c>
@@ -1371,22 +1389,22 @@
         <v>1</v>
       </c>
       <c r="L7" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="14" t="b">
         <v>0</v>
@@ -1398,11 +1416,11 @@
         <v>0</v>
       </c>
       <c r="U7" s="27">
-        <f>COUNTIF(J7:T7,"TRUE")/(COUNTIF(J7:T7,"TRUE")+COUNTIF(J7:T7,"FALSE"))</f>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="1"/>
+        <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>32</v>
       </c>
@@ -1437,19 +1455,19 @@
         <v>1</v>
       </c>
       <c r="L8" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="14" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="14" t="b">
         <v>0</v>
@@ -1464,11 +1482,11 @@
         <v>0</v>
       </c>
       <c r="U8" s="27">
-        <f>COUNTIF(J8:T8,"TRUE")/(COUNTIF(J8:T8,"TRUE")+COUNTIF(J8:T8,"FALSE"))</f>
-        <v>0.18181818181818182</v>
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>33</v>
       </c>
@@ -1509,13 +1527,13 @@
         <v>1</v>
       </c>
       <c r="N9" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="14" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="14" t="b">
         <v>0</v>
@@ -1530,11 +1548,11 @@
         <v>0</v>
       </c>
       <c r="U9" s="27">
-        <f>COUNTIF(J9:T9,"TRUE")/(COUNTIF(J9:T9,"TRUE")+COUNTIF(J9:T9,"FALSE"))</f>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="15" t="b">
         <v>0</v>
@@ -1555,7 +1573,9 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
@@ -1565,7 +1585,7 @@
       <c r="T10" s="14"/>
       <c r="U10" s="27"/>
     </row>
-    <row r="11" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>34</v>
       </c>
@@ -1594,16 +1614,16 @@
         <v>1</v>
       </c>
       <c r="J11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="14" t="b">
         <v>0</v>
@@ -1612,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="14" t="b">
         <v>0</v>
@@ -1628,10 +1648,10 @@
       </c>
       <c r="U11" s="27">
         <f>COUNTIF(J11:T11,"TRUE")/(COUNTIF(J11:T11,"TRUE")+COUNTIF(J11:T11,"FALSE"))</f>
-        <v>0</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
         <v>35</v>
       </c>
@@ -1656,10 +1676,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="14" t="b">
         <v>0</v>
@@ -1668,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="14" t="b">
         <v>0</v>
@@ -1684,10 +1704,10 @@
       </c>
       <c r="U12" s="27">
         <f>COUNTIF(J12:T12,"TRUE")/(COUNTIF(J12:T12,"TRUE")+COUNTIF(J12:T12,"FALSE"))</f>
-        <v>0.18181818181818182</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="30" t="s">
         <v>34</v>
       </c>
@@ -1696,14 +1716,18 @@
       <c r="D13" s="29"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>53</v>
+      </c>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="N13" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
@@ -1712,7 +1736,7 @@
       <c r="T13" s="14"/>
       <c r="U13" s="27"/>
     </row>
-    <row r="14" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="15"/>
       <c r="C14" s="16"/>

--- a/Gestão do Projeto/Indicadores/DashboardAlergias.xlsx
+++ b/Gestão do Projeto/Indicadores/DashboardAlergias.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Gestão do Projeto/Indicadores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E844EE-51BF-D647-BA6E-366EB9AEA3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC3601-2139-CE43-8D6C-13BE07C6BC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="1120" windowWidth="25640" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="800" windowWidth="25640" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -268,6 +268,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -500,10 +508,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -563,8 +572,15 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -966,8 +982,8 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1057,7 +1073,7 @@
       </c>
       <c r="L2" s="25">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="M2" s="25">
         <f t="shared" si="0"/>
@@ -1065,32 +1081,32 @@
       </c>
       <c r="N2" s="25">
         <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <v>1</v>
       </c>
       <c r="O2" s="25">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P2" s="25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="Q2" s="25">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="R2" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="25"/>
       <c r="T2" s="25">
         <f>COUNTIF(T4:T14, "TRUE")/(COUNTIF(T4:T14, "TRUE")+COUNTIF(T4:T14, "FALSE"))</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="U2" s="28">
         <f>AVERAGE(U4:U14)</f>
-        <v>0.60227272727272718</v>
+        <v>0.82954545454545459</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="43" thickBot="1" x14ac:dyDescent="0.2">
@@ -1157,7 +1173,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="11" t="b">
@@ -1209,21 +1225,21 @@
         <v>1</v>
       </c>
       <c r="R4" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="14" t="b">
         <v>0</v>
       </c>
       <c r="U4" s="26">
         <f t="shared" ref="U4:U9" si="1">COUNTIF(J4:T4,"TRUE")/(COUNTIF(J4:T4,"TRUE")+COUNTIF(J4:T4,"FALSE"))</f>
-        <v>0.72727272727272729</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="15" t="b">
@@ -1257,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="14" t="b">
         <v>1</v>
@@ -1275,21 +1291,21 @@
         <v>1</v>
       </c>
       <c r="R5" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="14" t="b">
         <v>0</v>
       </c>
       <c r="U5" s="27">
         <f t="shared" si="1"/>
-        <v>0.63636363636363635</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="15" t="b">
@@ -1341,21 +1357,21 @@
         <v>1</v>
       </c>
       <c r="R6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="14" t="b">
         <v>0</v>
       </c>
       <c r="U6" s="27">
         <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="15" t="b">
@@ -1407,21 +1423,21 @@
         <v>1</v>
       </c>
       <c r="R7" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="14" t="b">
         <v>0</v>
       </c>
       <c r="U7" s="27">
         <f t="shared" si="1"/>
-        <v>0.72727272727272729</v>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="33" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="15" t="b">
@@ -1464,26 +1480,26 @@
         <v>1</v>
       </c>
       <c r="O8" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="14" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="14" t="b">
         <v>0</v>
       </c>
       <c r="U8" s="27">
         <f t="shared" si="1"/>
-        <v>0.54545454545454541</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="13" x14ac:dyDescent="0.15">
@@ -1530,16 +1546,16 @@
         <v>1</v>
       </c>
       <c r="O9" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="14" t="b">
         <v>0</v>
       </c>
       <c r="R9" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="14" t="b">
         <v>0</v>
@@ -1549,7 +1565,7 @@
       </c>
       <c r="U9" s="27">
         <f t="shared" si="1"/>
-        <v>0.54545454545454541</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="13" x14ac:dyDescent="0.15">
@@ -1586,7 +1602,7 @@
       <c r="U10" s="27"/>
     </row>
     <row r="11" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="15" t="b">
@@ -1626,33 +1642,33 @@
         <v>1</v>
       </c>
       <c r="N11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="14" t="b">
         <v>0</v>
       </c>
       <c r="R11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="27">
         <f>COUNTIF(J11:T11,"TRUE")/(COUNTIF(J11:T11,"TRUE")+COUNTIF(J11:T11,"FALSE"))</f>
-        <v>0.45454545454545453</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="33" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="15"/>
@@ -1682,29 +1698,29 @@
         <v>1</v>
       </c>
       <c r="N12" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="14" t="b">
         <v>0</v>
       </c>
       <c r="R12" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="27">
         <f>COUNTIF(J12:T12,"TRUE")/(COUNTIF(J12:T12,"TRUE")+COUNTIF(J12:T12,"FALSE"))</f>
-        <v>0.45454545454545453</v>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="13" x14ac:dyDescent="0.15">
@@ -1716,7 +1732,7 @@
       <c r="D13" s="29"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="34" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="32"/>
@@ -1728,9 +1744,15 @@
       <c r="N13" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="O13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="14" t="b">
+        <v>1</v>
+      </c>
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
@@ -1761,13 +1783,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="http://www.saude.gov.br/fhir/r4/ValueSet/BRTerminologiaPatogeno" xr:uid="{88277468-0A3C-4B00-AC4A-35C8317AA937}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{88277468-0A3C-4B00-AC4A-35C8317AA937}"/>
     <hyperlink ref="G6" r:id="rId2" display="http://hl7.org/fhir/R4/valueset-observation-category.html" xr:uid="{9DB547BC-D8A5-4AC3-B422-A5688C80961B}"/>
     <hyperlink ref="G12" r:id="rId3" display="http://hl7.org/fhir/uv/ips/ValueSet/results-blood-group-snomed-ct-ips-free-set_x000a_" xr:uid="{625CA936-DD88-46FA-9997-2FFF69E9D3A9}"/>
     <hyperlink ref="G4" r:id="rId4" display="http://hl7.org/fhir/uv/ips/ValueSet/results-microorganism-snomed-ct-ips-free-set" xr:uid="{F0BFB575-4088-41F4-B50B-C9F470582B02}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{5CD60697-18A0-E64C-BCF4-44B0D521287E}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{250FDCB6-FE7E-214C-B4B8-25FA008817AC}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{DD06AFAC-C6AE-6C48-8108-F33500AF58AA}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{64C46401-FA56-2F40-B665-F003A9E040F9}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{38968FD1-B448-CF49-976B-FA0995C71D1E}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{FD152275-1713-FD45-BC54-940987CFAC19}"/>
+    <hyperlink ref="G13" r:id="rId11" xr:uid="{A31CEC02-BC86-2E45-8626-72AD3991E55F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>